--- a/Emission_Drone/Propellers.xlsx
+++ b/Emission_Drone/Propellers.xlsx
@@ -1,17 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\DSE_AEMS\Emission_Drone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41140E4-2A74-487F-B601-9CFF0FDFA00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Initial Selection" sheetId="1" r:id="rId1"/>
+    <sheet name="Viable Props" sheetId="2" r:id="rId2"/>
+    <sheet name="6-inch Viable" sheetId="3" r:id="rId3"/>
+    <sheet name="7-inch Viable" sheetId="4" r:id="rId4"/>
+    <sheet name="8-inch Viable" sheetId="5" r:id="rId5"/>
+    <sheet name="9-inch Viable" sheetId="7" r:id="rId6"/>
+    <sheet name="10-inch Viable" sheetId="8" r:id="rId7"/>
+    <sheet name="11-inch Viable" sheetId="9" r:id="rId8"/>
+    <sheet name="Iteration 1 Results" sheetId="10" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -230,90 +259,142 @@
   </si>
   <si>
     <t>4 blade props</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Maximum RPM</t>
+  </si>
+  <si>
+    <t>RPM for Max Thrust</t>
+  </si>
+  <si>
+    <t>RPM for Nominal Thrust</t>
+  </si>
+  <si>
+    <t>Nominal Torque</t>
+  </si>
+  <si>
+    <t>Max Torque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Lato"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,7 +402,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,8 +411,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -345,6 +432,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -356,6 +444,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -364,6 +454,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -372,11 +465,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -386,8 +482,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -395,123 +493,113 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -701,24 +789,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="36.63"/>
-    <col customWidth="1" min="8" max="8" width="2.5"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -745,753 +838,753 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:D3" si="1">I3*2.54/100</f>
-        <v>0.1524</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" si="1"/>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:D3" si="0">I3*2.54/100</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
         <v>0.10414</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>120000/I3</f>
         <v>20000</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="10">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" ref="C4:D4" si="2">I4*2.54/100</f>
-        <v>0.1524</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="2"/>
-        <v>0.1524</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:D4" si="1">I4*2.54/100</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E4" s="6">
         <f>150000/I4</f>
         <v>25000</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" ref="C5:D5" si="3">I5*2.54/100</f>
-        <v>0.1524</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="3"/>
-        <v>0.0762</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:D5" si="2">I5*2.54/100</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="E5" s="6">
         <f>120000/I5</f>
         <v>20000</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="13">
+        <v>6</v>
+      </c>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:D6" si="4">I6*2.54/100</f>
-        <v>0.1524</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="4"/>
-        <v>0.1397</v>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:D6" si="3">I6*2.54/100</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13970000000000002</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E10" si="6">150000/I6</f>
+        <f t="shared" ref="E6:E10" si="4">150000/I6</f>
         <v>25000</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f t="shared" ref="C7:D7" si="5">I7*2.54/100</f>
-        <v>0.1524</v>
-      </c>
-      <c r="D7" s="6">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="5"/>
         <v>0.1016</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:D8" si="6">I8*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D8" s="5">
         <f t="shared" si="6"/>
-        <v>25000</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:D8" si="7">I8*2.54/100</f>
-        <v>0.1778</v>
-      </c>
-      <c r="D8" s="6">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="4"/>
+        <v>21428.571428571428</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:D9" si="7">I9*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="7"/>
-        <v>0.1524</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="6"/>
-        <v>21428.57143</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" ref="C9:D9" si="8">I9*2.54/100</f>
-        <v>0.1778</v>
-      </c>
-      <c r="D9" s="6">
+        <v>0.1016</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="4"/>
+        <v>21428.571428571428</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:D10" si="8">I10*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="8"/>
-        <v>0.1016</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="6"/>
-        <v>21428.57143</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" ref="C10:D10" si="9">I10*2.54/100</f>
-        <v>0.1778</v>
-      </c>
-      <c r="D10" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="4"/>
+        <v>21428.571428571428</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:D11" si="9">I11*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D11" s="5">
         <f t="shared" si="9"/>
-        <v>0.127</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="6"/>
-        <v>21428.57143</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" ref="C11:D11" si="10">I11*2.54/100</f>
-        <v>0.1778</v>
-      </c>
-      <c r="D11" s="6">
+        <v>0.10414</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:E12" si="10">65000/I11</f>
+        <v>9285.7142857142862</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:D12" si="11">I12*2.54/100</f>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="11"/>
+        <v>9.6519999999999995E-2</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="10"/>
-        <v>0.10414</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" ref="E11:E12" si="12">65000/I11</f>
-        <v>9285.714286</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" ref="C12:D12" si="11">I12*2.54/100</f>
-        <v>0.1778</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="11"/>
-        <v>0.09652</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="12"/>
-        <v>9285.714286</v>
+        <v>9285.7142857142862</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" ref="C13:D13" si="13">I13*2.54/100</f>
-        <v>0.2032</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:D13" si="12">I13*2.54/100</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="12"/>
+        <v>0.1016</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E14" si="13">150000/I13</f>
+        <v>18750</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:D14" si="14">I14*2.54/100</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="14"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="13"/>
-        <v>0.1016</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:E14" si="15">150000/I13</f>
         <v>18750</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" ref="C14:D14" si="14">I14*2.54/100</f>
-        <v>0.2032</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="14"/>
-        <v>0.1524</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1"/>
+      <c r="G14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:D15" si="15">I15*2.54/100</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="15"/>
-        <v>18750</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" ref="C15:D15" si="16">I15*2.54/100</f>
-        <v>0.2032</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="16"/>
         <v>0.11938</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E18" si="18">65000/I15</f>
+        <f t="shared" ref="E15:E18" si="16">65000/I15</f>
         <v>8125</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f t="shared" ref="C16:D16" si="17">I16*2.54/100</f>
-        <v>0.2032</v>
-      </c>
-      <c r="D16" s="6">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="17"/>
-        <v>0.09652</v>
+        <v>9.6519999999999995E-2</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8125</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" ref="C17:D17" si="19">I17*2.54/100</f>
-        <v>0.2032</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:D17" si="18">I17*2.54/100</f>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="18"/>
+        <v>0.10414</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="16"/>
+        <v>8125</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:D18" si="19">I18*2.54/100</f>
+        <v>0.2286</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="19"/>
-        <v>0.10414</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="18"/>
-        <v>8125</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" ref="C18:D18" si="20">I18*2.54/100</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="16"/>
+        <v>7222.2222222222226</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" ref="C19:D19" si="20">I19*2.54/100</f>
         <v>0.2286</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="5">
         <f t="shared" si="20"/>
-        <v>0.1524</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="18"/>
-        <v>7222.222222</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" ref="C19:D19" si="21">I19*2.54/100</f>
-        <v>0.2286</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="21"/>
         <v>0.1143</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <f>105000/I19</f>
-        <v>11666.66667</v>
+        <v>11666.666666666666</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:D20" si="22">I20*2.54/100</f>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:D20" si="21">I20*2.54/100</f>
         <v>0.2286</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="22"/>
+      <c r="D20" s="5">
+        <f t="shared" si="21"/>
         <v>0.11938</v>
       </c>
       <c r="E20" s="1">
         <f>65000/I20</f>
-        <v>7222.222222</v>
+        <v>7222.2222222222226</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J20" s="3">
         <v>4.7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" ref="C21:D21" si="23">I21*2.54/100</f>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:D21" si="22">I21*2.54/100</f>
         <v>0.2286</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="23"/>
-        <v>0.1524</v>
+      <c r="D21" s="5">
+        <f t="shared" si="22"/>
+        <v>0.15240000000000001</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" ref="E21:E22" si="25">150000/I21</f>
-        <v>16666.66667</v>
+        <f t="shared" ref="E21:E22" si="23">150000/I21</f>
+        <v>16666.666666666668</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J21" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f t="shared" ref="C22:D22" si="24">I22*2.54/100</f>
         <v>0.2286</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" si="24"/>
         <v>0.1143</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="25"/>
-        <v>16666.66667</v>
+        <f t="shared" si="23"/>
+        <v>16666.666666666668</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I22" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J22" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:D23" si="26">I23*2.54/100</f>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:D23" si="25">I23*2.54/100</f>
         <v>0.254</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="26"/>
+      <c r="D23" s="5">
+        <f t="shared" si="25"/>
         <v>0.11684</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <f>65000/I23</f>
         <v>6500</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>50</v>
       </c>
       <c r="I23" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="16" t="s">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" ref="C24:D24" si="27">I24*2.54/100</f>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:D24" si="26">I24*2.54/100</f>
         <v>0.254</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="27"/>
+      <c r="D24" s="5">
+        <f t="shared" si="26"/>
         <v>0.127</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24:E25" si="29">150000/I24</f>
+        <f t="shared" ref="E24:E25" si="27">150000/I24</f>
         <v>15000</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:D25" si="28">I25*2.54/100</f>
         <v>0.254</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" si="28"/>
-        <v>0.1524</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="27"/>
+        <v>15000</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:D26" si="29">I26*2.54/100</f>
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="29"/>
-        <v>15000</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" ref="C26:D26" si="30">I26*2.54/100</f>
-        <v>0.2794</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" si="30"/>
-        <v>0.10668</v>
-      </c>
-      <c r="E26" s="16">
-        <v>8400.0</v>
+        <v>0.10668000000000001</v>
+      </c>
+      <c r="E26" s="14">
+        <v>8400</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J26" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="31">I27*2.54/100</f>
-        <v>0.2794</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="31"/>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:D27" si="30">I27*2.54/100</f>
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="30"/>
         <v>0.11684</v>
       </c>
       <c r="E27" s="1">
         <f>65000/I27</f>
-        <v>5909.090909</v>
+        <v>5909.090909090909</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>58</v>
       </c>
       <c r="I27" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J27" s="3">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="s">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" ref="C28:D28" si="32">I28*2.54/100</f>
-        <v>0.2794</v>
-      </c>
-      <c r="D28" s="6">
-        <f t="shared" si="32"/>
-        <v>0.1397</v>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:D28" si="31">I28*2.54/100</f>
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="31"/>
+        <v>0.13970000000000002</v>
       </c>
       <c r="E28" s="1">
         <f>150000/I28</f>
-        <v>13636.36364</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17" t="s">
+        <v>13636.363636363636</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I28" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J28" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" ref="C29:D29" si="33">I29*2.54/100</f>
-        <v>0.2794</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" si="33"/>
-        <v>0.09652</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="C29" s="5">
+        <f t="shared" ref="C29:D29" si="32">I29*2.54/100</f>
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="32"/>
+        <v>9.6519999999999995E-2</v>
+      </c>
+      <c r="E29" s="19">
         <f>65000/I29</f>
-        <v>5909.090909</v>
-      </c>
-      <c r="G29" s="23" t="s">
+        <v>5909.090909090909</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="I29" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J29" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1499,7 +1592,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1507,7 +1600,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1515,25 +1608,25 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34">
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="21">
         <v>23.9</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="22">
         <v>13.5</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24">
+      <c r="E34" s="23"/>
+      <c r="F34" s="21">
         <v>8.5</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1541,7 +1634,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1549,7 +1642,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1557,7 +1650,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1565,7 +1658,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1573,7 +1666,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1581,7 +1674,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1589,7 +1682,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1597,87 +1690,87 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="28" t="s">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>12.7</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="26">
         <f>9.398</f>
-        <v>9.398</v>
+        <v>9.3979999999999997</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="31">
-        <v>3.968933</v>
-      </c>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="27">
+        <v>3.9689329999999998</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="32" t="s">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="33"/>
+      <c r="B57" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="14">
         <v>10.16</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <v>10.16</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="31">
-        <v>3.968933</v>
-      </c>
-      <c r="G57" s="17" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="27">
+        <v>3.9689329999999998</v>
+      </c>
+      <c r="G57" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="29" t="s">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="33"/>
+      <c r="B58" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="14">
         <v>12.7</v>
       </c>
-      <c r="D58" s="30">
-        <v>9.398</v>
+      <c r="D58" s="26">
+        <v>9.3979999999999997</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="31">
-        <v>3.968933</v>
-      </c>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="27">
+        <v>3.9689329999999998</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="33" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="14">
         <v>22.86</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="14">
         <v>11.43</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="34">
+      <c r="F59" s="30">
         <v>13.5</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1685,8 +1778,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="18"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1694,8 +1787,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="1"/>
@@ -1705,8 +1798,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="12"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1714,8 +1807,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1723,8 +1816,8 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1732,8 +1825,8 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1741,8 +1834,8 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="18"/>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="34"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1757,39 +1850,874 @@
     <mergeCell ref="A63:A68"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
-    <hyperlink r:id="rId5" ref="G7"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId8" ref="G10"/>
-    <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId10" ref="G12"/>
-    <hyperlink r:id="rId11" ref="G13"/>
-    <hyperlink r:id="rId12" ref="G14"/>
-    <hyperlink r:id="rId13" ref="G15"/>
-    <hyperlink r:id="rId14" ref="G16"/>
-    <hyperlink r:id="rId15" ref="G17"/>
-    <hyperlink r:id="rId16" ref="G18"/>
-    <hyperlink r:id="rId17" ref="G19"/>
-    <hyperlink r:id="rId18" ref="G20"/>
-    <hyperlink r:id="rId19" ref="G21"/>
-    <hyperlink r:id="rId20" ref="G22"/>
-    <hyperlink r:id="rId21" ref="G23"/>
-    <hyperlink r:id="rId22" ref="G24"/>
-    <hyperlink r:id="rId23" ref="G25"/>
-    <hyperlink r:id="rId24" ref="G26"/>
-    <hyperlink r:id="rId25" ref="G27"/>
-    <hyperlink r:id="rId26" ref="G28"/>
-    <hyperlink r:id="rId27" ref="G29"/>
-    <hyperlink r:id="rId28" ref="G34"/>
-    <hyperlink r:id="rId29" ref="G56"/>
-    <hyperlink r:id="rId30" ref="G57"/>
-    <hyperlink r:id="rId31" ref="G58"/>
-    <hyperlink r:id="rId32" ref="G59"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G34" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G56" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G57" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G58" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G59" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId33"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14564195-1CA8-4E23-9600-9E56F6B0F4AE}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.13970000000000002</v>
+      </c>
+      <c r="D3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.1016</v>
+      </c>
+      <c r="D4">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D5">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.1016</v>
+      </c>
+      <c r="D6">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.127</v>
+      </c>
+      <c r="D7">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.1016</v>
+      </c>
+      <c r="D8">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D9">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0.2286</v>
+      </c>
+      <c r="C10">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D10">
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0.2286</v>
+      </c>
+      <c r="C11">
+        <v>0.1143</v>
+      </c>
+      <c r="D11">
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>0.254</v>
+      </c>
+      <c r="C12">
+        <v>0.127</v>
+      </c>
+      <c r="D12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0.254</v>
+      </c>
+      <c r="C13">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.13970000000000002</v>
+      </c>
+      <c r="D14">
+        <v>13636.363636363636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1228AB65-E93D-4EAD-8327-5F50A55702B2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.13970000000000002</v>
+      </c>
+      <c r="D3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.1016</v>
+      </c>
+      <c r="D4">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67DCECA-A764-4C48-A64B-10505DC8E4B2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D2">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.1016</v>
+      </c>
+      <c r="D3">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.127</v>
+      </c>
+      <c r="D4">
+        <v>21428.571428571428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C3B323-F8F4-47EA-AA4A-1AE04EBE86EA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.1016</v>
+      </c>
+      <c r="D2">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D3">
+        <v>18750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8238E448-47DB-4612-89D7-8C67A6586BBE}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.2286</v>
+      </c>
+      <c r="C2">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D2">
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>0.2286</v>
+      </c>
+      <c r="C3">
+        <v>0.1143</v>
+      </c>
+      <c r="D3">
+        <v>16666.666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3C1A40-F41D-4811-8198-78BAF3BC1338}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0.254</v>
+      </c>
+      <c r="C2">
+        <v>0.127</v>
+      </c>
+      <c r="D2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>0.254</v>
+      </c>
+      <c r="C3">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37B55F-B993-4F0C-8162-E6AEEC3EB63A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>0.27940000000000004</v>
+      </c>
+      <c r="C2">
+        <v>0.13970000000000002</v>
+      </c>
+      <c r="D2">
+        <v>13636.363636363636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4718D670-0834-4CDB-86D9-471F34FC7E38}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="36">
+        <v>13800</v>
+      </c>
+      <c r="C2" s="36">
+        <v>19500</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.115</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="36">
+        <v>14400</v>
+      </c>
+      <c r="C3" s="36">
+        <v>20300</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.21637999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="36">
+        <v>16800</v>
+      </c>
+      <c r="C4" s="36">
+        <v>23700</v>
+      </c>
+      <c r="D4" s="36">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.1799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="36">
+        <v>10900</v>
+      </c>
+      <c r="C5" s="36">
+        <v>15400</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.121</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.24160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="36">
+        <v>13300</v>
+      </c>
+      <c r="C6" s="36">
+        <v>18800</v>
+      </c>
+      <c r="D6" s="36">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.1966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="36">
+        <v>11900</v>
+      </c>
+      <c r="C7" s="36">
+        <v>16900</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.1086</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="36">
+        <v>10900</v>
+      </c>
+      <c r="C8" s="36">
+        <v>15400</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.108</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.21579999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="36">
+        <v>8900</v>
+      </c>
+      <c r="C9" s="36">
+        <v>12600</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.25590000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="36">
+        <v>7500</v>
+      </c>
+      <c r="C10" s="36">
+        <v>10600</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.1368</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.27329999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="36">
+        <v>8600</v>
+      </c>
+      <c r="C11" s="36">
+        <v>12100</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.1212</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="36">
+        <v>7000</v>
+      </c>
+      <c r="C12" s="36">
+        <v>9800</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.13607</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.26669999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="36">
+        <v>6400</v>
+      </c>
+      <c r="C13" s="36">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.2868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="36">
+        <v>5800</v>
+      </c>
+      <c r="C14" s="36">
+        <v>8100</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>